--- a/Bootcamp - Logic/Logic 4.xlsx
+++ b/Bootcamp - Logic/Logic 4.xlsx
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N31" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33:AF41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bootcamp - Logic/Logic 4.xlsx
+++ b/Bootcamp - Logic/Logic 4.xlsx
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,11 +224,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +272,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,7 +583,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,10 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AE53"/>
+  <dimension ref="B2:AF53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G27" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2176,7 +2190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>0</v>
       </c>
@@ -2216,7 +2230,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B34">
         <f>B33+1</f>
         <v>1</v>
@@ -2270,7 +2284,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="shared" ref="B35:B37" si="46">B34+1</f>
         <v>2</v>
@@ -2336,7 +2350,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36">
         <f t="shared" si="46"/>
         <v>3</v>
@@ -2414,7 +2428,7 @@
       </c>
       <c r="AE36" s="1"/>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B37">
         <f t="shared" si="46"/>
         <v>4</v>
@@ -2501,8 +2515,9 @@
       <c r="AE37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="AF37" s="16"/>
+    </row>
+    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B38" s="3"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2563,7 +2578,7 @@
       </c>
       <c r="AE38" s="1"/>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B39" s="3"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -2616,7 +2631,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -2661,7 +2676,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -2698,7 +2713,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -2715,7 +2730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>0</v>
       </c>
@@ -2819,7 +2834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0</v>
       </c>
@@ -2875,7 +2890,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B46">
         <f>B45+1</f>
         <v>1</v>
@@ -2937,7 +2952,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B47">
         <f t="shared" ref="B47:B49" si="70">B46+1</f>
         <v>2</v>
@@ -3003,7 +3018,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B48">
         <f t="shared" si="70"/>
         <v>3</v>
